--- a/Synopse/Gantt diagram.xlsx
+++ b/Synopse/Gantt diagram.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,60 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
-  <si>
-    <t>Uge 1</t>
-  </si>
-  <si>
-    <t>Uge 2</t>
-  </si>
-  <si>
-    <t>Uge 3</t>
-  </si>
-  <si>
-    <t>Uge 4</t>
-  </si>
-  <si>
-    <t>Uge 5</t>
-  </si>
-  <si>
-    <t>Uge 6</t>
-  </si>
-  <si>
-    <t>Uge 7</t>
-  </si>
-  <si>
-    <t>Uge 8</t>
-  </si>
-  <si>
-    <t>Uge 9</t>
-  </si>
-  <si>
-    <t>Uge 10</t>
-  </si>
-  <si>
-    <t>Uge 11</t>
-  </si>
-  <si>
-    <t>Uge 12</t>
-  </si>
-  <si>
-    <t>Uge 13</t>
-  </si>
-  <si>
-    <t>Uge 14</t>
-  </si>
-  <si>
-    <t>Uge 15</t>
-  </si>
-  <si>
-    <t>Uge 16</t>
-  </si>
-  <si>
-    <t>Uge 17</t>
-  </si>
-  <si>
-    <t>Uge 18</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+  <si>
+    <t>Uge 1/2</t>
+  </si>
+  <si>
+    <t>Uge 3/4</t>
+  </si>
+  <si>
+    <t>Uge 5/6</t>
+  </si>
+  <si>
+    <t>Uge 7/8</t>
+  </si>
+  <si>
+    <t>Uge 9/10</t>
+  </si>
+  <si>
+    <t>Uge 11/12</t>
+  </si>
+  <si>
+    <t>Uge 13/14</t>
+  </si>
+  <si>
+    <t>Uge 15/16</t>
+  </si>
+  <si>
+    <t>Uge 17/18</t>
   </si>
   <si>
     <t>Synopse</t>
@@ -101,58 +74,31 @@
     <t>Datoer</t>
   </si>
   <si>
-    <t>2/2-8/2</t>
-  </si>
-  <si>
-    <t>9/2-15/2</t>
-  </si>
-  <si>
-    <t>16/2-22/2</t>
-  </si>
-  <si>
-    <t>23/2-1/3</t>
-  </si>
-  <si>
-    <t>2/3-8/3</t>
-  </si>
-  <si>
-    <t>9/3-15/3</t>
-  </si>
-  <si>
-    <t>16/3-22/3</t>
-  </si>
-  <si>
-    <t>23/3-29/3</t>
-  </si>
-  <si>
-    <t>30/3-5/4</t>
-  </si>
-  <si>
-    <t>6/4-12/4</t>
-  </si>
-  <si>
-    <t>13/4-19/4</t>
-  </si>
-  <si>
-    <t>20/4-26/4</t>
-  </si>
-  <si>
-    <t>27/4-3/5</t>
-  </si>
-  <si>
-    <t>4/5-10/5</t>
-  </si>
-  <si>
-    <t>11/5-17/5</t>
-  </si>
-  <si>
-    <t>18/5-24/5</t>
-  </si>
-  <si>
-    <t>25/5-31/5</t>
-  </si>
-  <si>
-    <t>1/6-7/6</t>
+    <t>2/2 – 15/2</t>
+  </si>
+  <si>
+    <t>16/2 - 1/3</t>
+  </si>
+  <si>
+    <t>2/3 – 15/3</t>
+  </si>
+  <si>
+    <t>16/3 – 29/3</t>
+  </si>
+  <si>
+    <t>30/3 – 12/4</t>
+  </si>
+  <si>
+    <t>13/4 – 26/4</t>
+  </si>
+  <si>
+    <t>27/4 – 10/5</t>
+  </si>
+  <si>
+    <t>11/5 – 24/5</t>
+  </si>
+  <si>
+    <t>25/5 – 7/6</t>
   </si>
   <si>
     <t>Mulige forsinkelser</t>
@@ -164,10 +110,7 @@
     <t>Påskeferie</t>
   </si>
   <si>
-    <t>Eksamensuge</t>
-  </si>
-  <si>
-    <t>Mellemuge</t>
+    <t>Skemafri uge</t>
   </si>
   <si>
     <t>Projektfrister</t>
@@ -188,6 +131,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -209,6 +153,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -220,17 +165,11 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Century SchoolBook URW"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -239,10 +178,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Century SchoolBook URW"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -256,6 +203,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -279,20 +227,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF00CC"/>
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD320"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF00CC"/>
-        <bgColor rgb="FFCC00CC"/>
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -309,14 +257,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC00CC"/>
-        <bgColor rgb="FFFF00CC"/>
+        <fgColor rgb="FF990099"/>
+        <bgColor rgb="FF800080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF003333"/>
-        <bgColor rgb="FF003300"/>
+        <fgColor rgb="FF333333"/>
+        <bgColor rgb="FF333300"/>
       </patternFill>
     </fill>
   </fills>
@@ -445,7 +393,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -466,47 +414,51 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -514,15 +466,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -530,35 +474,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -574,11 +534,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -590,11 +554,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -610,11 +574,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -631,17 +591,17 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF00FF66"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00CC"/>
+      <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF00CC00"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF990099"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
@@ -654,7 +614,7 @@
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFCC00CC"/>
+      <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
@@ -672,12 +632,12 @@
       <rgbColor rgb="FF3399FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003333"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -698,15 +658,19 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5867346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.3673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3367346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.5816326530612"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8673469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6938775510204"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.5612244897959"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.6377551020408"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.3622448979592"/>
@@ -739,353 +703,315 @@
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
       <c r="Q2" s="11"/>
       <c r="S2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
+      <c r="A3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
       <c r="Q3" s="11"/>
       <c r="S3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
       <c r="Q4" s="11"/>
       <c r="S4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
       <c r="Q5" s="11"/>
       <c r="S5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="11"/>
       <c r="S6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
       <c r="Q7" s="11"/>
       <c r="S7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="11"/>
       <c r="S8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
+      <c r="A9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
-      <c r="R9" s="22"/>
+      <c r="R9" s="12"/>
       <c r="S9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="28"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
+      <c r="J11" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="F12" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="G12" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="37"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="S11" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="37"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="42"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
